--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,79 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\최민\2025-1-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="User Data" sheetId="1" r:id="rId1"/>
+    <sheet name="User Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>슬라이더 값</t>
-  </si>
-  <si>
-    <t>체크박스 상태</t>
-  </si>
-  <si>
-    <t>최민2</t>
-  </si>
-  <si>
-    <t>선택됨</t>
-  </si>
-  <si>
-    <t>최민3</t>
-  </si>
-  <si>
-    <t>김땡땡</t>
-  </si>
-  <si>
-    <t>선택 안 됨</t>
-  </si>
-  <si>
-    <t>김이이</t>
-  </si>
-  <si>
-    <t>이떙떙</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,24 +52,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,103 +415,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col width="10.625" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>슬라이더 값</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>체크박스 상태</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>최민2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>선택됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>최민3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>65</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>선택됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>김땡땡</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>선택 안 됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>김이이</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>선택됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>이떙떙</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>선택됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>newname</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>78</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>선택 안 됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>선택 안 됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>최민123</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>선택됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>초이민</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>선택됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>선택 안 됨</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>alsl</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>72</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>선택 안 됨</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967292"/>
 </worksheet>
 </file>